--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>748299.2935295106</v>
+        <v>762484.8721533814</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7568560.142670789</v>
+        <v>7622250.256120879</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>322.2366735834878</v>
+        <v>45.29340137856897</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.131371679086661</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>178.9654853621852</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>237.2177930475864</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>136.2237626411384</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>67.26765633885512</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>61.28254323221108</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,10 +1148,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5442633372307</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>54.18430635300714</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283471</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>132.7957673084549</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>6.133574646794441</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225759</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>410.6555217015901</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>32.67077719907106</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>129.260683952505</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>39.88277234054721</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>334.269844335603</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>26.41040541581676</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>240.9739924674999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>122.9742767430576</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2476,25 +2476,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>126.7641785672303</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225762</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>129.7139627068451</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3199,10 +3199,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.34318456170477</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>105.2234111170481</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.0567773522571</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,13 +3740,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>166.162536832921</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>423.048970830616</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3952,19 +3952,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>134.9254647561318</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>179.0861311466716</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>163.952175721808</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4028,10 +4028,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>206.8981232563545</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4043,7 +4043,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4141,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>102.5724179071759</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1678.527634351314</v>
       </c>
       <c r="C2" t="n">
-        <v>925.2294405284488</v>
+        <v>1632.776723867911</v>
       </c>
       <c r="D2" t="n">
-        <v>893.3600597432974</v>
+        <v>1196.866939042355</v>
       </c>
       <c r="E2" t="n">
-        <v>863.6257189419966</v>
+        <v>763.0921942006503</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>335.224764609858</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>46.09461005307431</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1568.238183299064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257659</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194552</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.171933067591</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1720.949630384608</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1720.949630384608</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1720.134579836045</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1705.03252045576</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1700.786800795817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>87.41347286400185</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067191</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>485.7428345149559</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>485.7428345149559</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>485.7428345149559</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>485.7428345149559</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>485.7428345149559</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.7801684713901</v>
+        <v>727.7852489465185</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>723.6121462403704</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>557.7341534418931</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>387.9761496926304</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>211.2690956543867</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>196.7623387080738</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>614.9722204760349</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1074.456087656948</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1516.714890814592</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1936.384140040374</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2038.011587589171</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1759.578586842276</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1472.623078712706</v>
       </c>
       <c r="W4" t="n">
-        <v>1516.410212542856</v>
+        <v>1200.596674298998</v>
       </c>
       <c r="X4" t="n">
-        <v>1271.018457876269</v>
+        <v>955.2049196324103</v>
       </c>
       <c r="Y4" t="n">
-        <v>1043.598787190377</v>
+        <v>727.7852489465185</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>763.0287521501522</v>
+        <v>1785.732350522015</v>
       </c>
       <c r="C5" t="n">
-        <v>523.4148197788528</v>
+        <v>1347.589877705439</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>911.6800928798832</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>881.9457520785825</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.574042295003</v>
+        <v>1812.237236626462</v>
       </c>
       <c r="Y5" t="n">
-        <v>785.2879185946559</v>
+        <v>1807.991516966519</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>274.4525077333886</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>101.8907962166135</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>983.6892855326716</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>711.6628811189632</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>466.2711264523757</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.2711264523757</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>587.458323283332</v>
+        <v>1671.542826455969</v>
       </c>
       <c r="C8" t="n">
-        <v>553.3562545071593</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>521.4868737220079</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E8" t="n">
-        <v>459.5853149015927</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2480.622176595841</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2480.622176595841</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>2118.005226529668</v>
       </c>
       <c r="W8" t="n">
-        <v>1437.146076848872</v>
+        <v>2117.190175981105</v>
       </c>
       <c r="X8" t="n">
-        <v>1018.003613428182</v>
+        <v>2102.08811660082</v>
       </c>
       <c r="Y8" t="n">
-        <v>609.7174897278358</v>
+        <v>2097.842396940877</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>413.6262883912215</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>248.0350134170491</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>108.1328391074236</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
@@ -5039,16 +5039,16 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
         <v>2312.656441940405</v>
@@ -5078,13 +5078,13 @@
         <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>1012.231663489991</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>839.6699519732158</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>673.7919591747386</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111518</v>
@@ -5206,7 +5206,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1204.050282208978</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H14" t="n">
         <v>97.15276605397517</v>
@@ -5276,52 +5276,52 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111518</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>96.73597668111518</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.783811891666</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112634</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.462783046461</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457494</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3346.464865036805</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.178741336458</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.109260520272</v>
+        <v>1175.794137292996</v>
       </c>
       <c r="C16" t="n">
-        <v>879.547549003497</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D16" t="n">
-        <v>713.6695562050197</v>
+        <v>837.3544329777441</v>
       </c>
       <c r="E16" t="n">
-        <v>543.9115524557569</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F16" t="n">
-        <v>367.2044984175132</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160654</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111518</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2651.692136662472</v>
       </c>
       <c r="T16" t="n">
-        <v>2554.154217881911</v>
+        <v>2405.812690240927</v>
       </c>
       <c r="U16" t="n">
-        <v>2275.721217135017</v>
+        <v>2127.379689494032</v>
       </c>
       <c r="V16" t="n">
-        <v>1988.765709005447</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="W16" t="n">
-        <v>1716.739304591739</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X16" t="n">
-        <v>1471.347549925151</v>
+        <v>1595.032426697875</v>
       </c>
       <c r="Y16" t="n">
-        <v>1243.927879239259</v>
+        <v>1367.612756011983</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.677328997516</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1990.534856180939</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1554.625071355384</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548907</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781546</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137089</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742887</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832466</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085326</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523497</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356893</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315488</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068544</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068544</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941583</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4449.877891258599</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4087.260941192426</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3682.405486603459</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3263.26302318277</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2854.976899482424</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126637</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.298632249306</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958592</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228129</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389745</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051584</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818285</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480408</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.544773713206</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924268</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1088.981559807928</v>
+        <v>949.5782250957673</v>
       </c>
       <c r="C19" t="n">
-        <v>916.4198482911527</v>
+        <v>777.0165135789922</v>
       </c>
       <c r="D19" t="n">
-        <v>750.5418554926753</v>
+        <v>611.1385207805149</v>
       </c>
       <c r="E19" t="n">
-        <v>580.7838517434125</v>
+        <v>611.1385207805149</v>
       </c>
       <c r="F19" t="n">
-        <v>404.0767977051687</v>
+        <v>434.4314667422711</v>
       </c>
       <c r="G19" t="n">
-        <v>238.4855227309964</v>
+        <v>268.8401917680988</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137089</v>
+        <v>128.9380174584733</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860607</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571963</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251574</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2556.001589622167</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U19" t="n">
-        <v>2312.593516422672</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V19" t="n">
-        <v>2025.638008293103</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1753.611603879394</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X19" t="n">
-        <v>1508.219849212807</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.800178526915</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2594.704009018975</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5978,10 +5978,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6020,16 +6020,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
         <v>2955.199618136697</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903948</v>
       </c>
       <c r="C25" t="n">
-        <v>790.3368563937634</v>
+        <v>798.4343348736197</v>
       </c>
       <c r="D25" t="n">
-        <v>624.4588635952861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>624.4588635952861</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
         <v>1654.847790009657</v>
@@ -6215,10 +6215,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6242,10 +6242,10 @@
         <v>4117.581748488571</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.891623321967</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6257,16 +6257,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
         <v>2955.199618136697</v>
@@ -6303,7 +6303,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903953</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736203</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>632.556342075143</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258803</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0912842876364</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134641</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
         <v>1654.847790009657</v>
@@ -6452,34 +6452,34 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6494,16 +6494,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
         <v>2955.199618136697</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1083.7810821021</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>911.2193705853248</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>745.3413777868475</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>575.5833740375847</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>398.8763199993409</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>233.2850450251686</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1748.411126173566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1503.019371506979</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.599700821087</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,46 +6704,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423626</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716168</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238767</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856329</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856329</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,16 +6938,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993933</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903955</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736207</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751434</v>
+        <v>632.5563420751427</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258808</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7123,22 +7123,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752035</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.60800300514</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
         <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
         <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436392</v>
@@ -7172,52 +7172,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238767</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856329</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856329</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.801834709349</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.183334455166</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.040861638589</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.131076813034</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640438</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873077</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305239</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305239</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834418</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.685099163898</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163898</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734204</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.1746405676</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526195</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526195</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526195</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399233</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.38389671625</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650077</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.91149206111</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.76902864042</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.482904940074</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218167</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.128752358459</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050123</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.918048831966</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481276</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143114</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305239</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909815</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571938</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282918</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282918</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282918</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282918</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282918</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223591</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015799</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142405</v>
+        <v>1175.794137292996</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D43" t="n">
-        <v>841.031924827153</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778902</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396464</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654741</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558486</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305239</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952137</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663494</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343104</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.83170973132</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309775</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U43" t="n">
-        <v>2311.952263309775</v>
+        <v>2171.986423221849</v>
       </c>
       <c r="V43" t="n">
-        <v>2024.996755180206</v>
+        <v>1885.03091509228</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.101673213872</v>
+        <v>1613.004510678571</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547284</v>
+        <v>1367.612756011983</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861393</v>
+        <v>1367.612756011983</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168565</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351989</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
         <v>1648.906137047132</v>
@@ -7640,10 +7640,10 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7655,43 +7655,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693461</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693461</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263767</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097163</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055758</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112633</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.85743042965</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363476</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774509</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.24256235382</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653473</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.0533615061026</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C46" t="n">
-        <v>771.4916499893276</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D46" t="n">
-        <v>605.6136571908503</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E46" t="n">
-        <v>502.0051542543091</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F46" t="n">
-        <v>325.2981002160653</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
         <v>183.315661845805</v>
@@ -7813,7 +7813,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N46" t="n">
         <v>1778.026668523459</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2691.977765289287</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.098318867742</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.665318120847</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.709809991278</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.683405577569</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.291650910982</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.87198022509</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>90.34648051320363</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.6106242705652</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
-        <v>1069.568313180545</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638091</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>834.6527275730841</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-8.355777987821105e-14</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10352,13 +10352,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352437</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10425,7 +10425,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
         <v>687.6096162327044</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10586,19 +10586,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>404.4043982844096</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226456</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.06596429261231</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>268.0111327346216</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>268.0111327346221</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.3810530784686</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.1445778789303</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.67467827192561</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>117.7661826744361</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>95.16715305768474</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>61.36294431725465</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.67467827192579</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.151023720780131e-12</v>
+        <v>-5.005136488966254e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>34.67467827192567</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>48.17580493063107</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.789189859684114</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>69.71657238081326</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25628,13 +25628,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>267.5985112554899</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.388026562671712</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>140.7232059832939</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>90.22000922289978</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>267.5985112554919</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>49.73195639979878</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>65.48800580459424</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>625415.5416449985</v>
+        <v>637449.3294453693</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>625415.5416449985</v>
+        <v>645369.9449372662</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>625415.5416449985</v>
+        <v>645369.9449372662</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655719.9021523892</v>
+        <v>673882.8883853341</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673882.8883853341</v>
+        <v>673882.8883853339</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664758.7927083335</v>
+        <v>646595.8064753886</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>646595.8064753884</v>
+        <v>646595.8064753886</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>361899.4409260257</v>
       </c>
       <c r="C2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260256</v>
       </c>
       <c r="D2" t="n">
         <v>361899.4409260257</v>
@@ -26326,10 +26326,10 @@
         <v>341228.6311308815</v>
       </c>
       <c r="G2" t="n">
-        <v>346043.6989785086</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="H2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="I2" t="n">
         <v>355628.8692927128</v>
@@ -26341,7 +26341,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="L2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="M2" t="n">
         <v>355628.8692927127</v>
@@ -26350,7 +26350,7 @@
         <v>355628.8692927127</v>
       </c>
       <c r="O2" t="n">
-        <v>350813.8014450857</v>
+        <v>341228.6311308815</v>
       </c>
       <c r="P2" t="n">
         <v>341228.6311308815</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745929</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104284984</v>
+        <v>18928.52796216478</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996407</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256749</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393348</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>196690.2726294614</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
         <v>103931.2982770052</v>
@@ -26430,7 +26430,7 @@
         <v>103931.2982770052</v>
       </c>
       <c r="G4" t="n">
-        <v>105397.8699742196</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="H4" t="n">
         <v>108317.3178284629</v>
@@ -26454,7 +26454,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>106850.7461312485</v>
+        <v>103931.2982770052</v>
       </c>
       <c r="P4" t="n">
         <v>103931.2982770052</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696287</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,7 +26482,7 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26497,16 +26497,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319816</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57941.91390347562</v>
+        <v>-94479.67916809177</v>
       </c>
       <c r="C6" t="n">
-        <v>84249.38675623428</v>
+        <v>73980.89915348096</v>
       </c>
       <c r="D6" t="n">
-        <v>84249.38675623422</v>
+        <v>105170.9340909403</v>
       </c>
       <c r="E6" t="n">
-        <v>-70577.03144580853</v>
+        <v>1966.356811317607</v>
       </c>
       <c r="F6" t="n">
-        <v>163777.9905762288</v>
+        <v>163701.432021432</v>
       </c>
       <c r="G6" t="n">
-        <v>159393.2731611973</v>
+        <v>150641.56055691</v>
       </c>
       <c r="H6" t="n">
-        <v>157190.5578784932</v>
+        <v>169570.0885190748</v>
       </c>
       <c r="I6" t="n">
-        <v>169593.3128584573</v>
+        <v>169570.0885190747</v>
       </c>
       <c r="J6" t="n">
-        <v>58578.84751346725</v>
+        <v>20178.4920933998</v>
       </c>
       <c r="K6" t="n">
-        <v>169593.3128584574</v>
+        <v>144723.1517351413</v>
       </c>
       <c r="L6" t="n">
-        <v>169593.3128584574</v>
+        <v>169570.0885190746</v>
       </c>
       <c r="M6" t="n">
-        <v>-26007.86642461052</v>
+        <v>34580.14390607122</v>
       </c>
       <c r="N6" t="n">
-        <v>169593.3128584573</v>
+        <v>169570.0885190746</v>
       </c>
       <c r="O6" t="n">
-        <v>167648.819230639</v>
+        <v>163701.432021432</v>
       </c>
       <c r="P6" t="n">
-        <v>163777.9905762288</v>
+        <v>163701.432021432</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267136</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631549</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319641</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760939</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319641</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760939</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,22 +27379,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>111.5243745049231</v>
+        <v>388.4676467098419</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,7 +27442,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>166.7047227225206</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27588,16 +27588,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>90.34065500738615</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>196.5432550408246</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>287.364992653746</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>96.95155653163741</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>368.1544541610767</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>30.32229151846104</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>33.58904338006428</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>90.34648051320363</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.6106242705652</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
-        <v>1069.568313180545</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35893,10 +35893,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638091</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>834.6527275730841</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -37072,13 +37072,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352437</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
         <v>687.6096162327044</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37306,19 +37306,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>404.4043982844096</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226456</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.06596429261231</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
